--- a/Test.xlsx
+++ b/Test.xlsx
@@ -20,9 +20,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>стицкер</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>bc</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>bd</t>
+  </si>
+  <si>
+    <t>hfghg</t>
   </si>
 </sst>
 </file>
@@ -352,15 +376,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -20,46 +20,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>стицкер</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>bb</t>
-  </si>
-  <si>
-    <t>bc</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>bd</t>
-  </si>
-  <si>
-    <t>hfghg</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>emoji</t>
+  </si>
+  <si>
+    <t>file_id</t>
+  </si>
+  <si>
+    <t>sticker_id</t>
+  </si>
+  <si>
+    <t>key_word</t>
+  </si>
+  <si>
+    <t>CAACAgIAAxkBAANBYFnKfcWD9t6m_8-4LD8clr4e4wcAAlkAAwr8wgXOU7sZfH5zGx4E</t>
+  </si>
+  <si>
+    <t>CAACAgIAAxkBAANEYFnLQxjtNi5MTuMghLPi9mJjD3MAAg0EAALPX4sHmuYS8a7yxGQeBA</t>
+  </si>
+  <si>
+    <t>я не хочу брать Иерусалим</t>
+  </si>
+  <si>
+    <t>смешная шутка</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -82,8 +86,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -376,53 +381,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="B1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1">
-        <v>2321</v>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="E3" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test.xlsx
+++ b/Test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>emoji</t>
   </si>
@@ -44,6 +44,18 @@
   </si>
   <si>
     <t>смешная шутка</t>
+  </si>
+  <si>
+    <t>пока</t>
+  </si>
+  <si>
+    <t>CAACAgIAAxkBAANKYFsYAAE4EvZcktpJ37Vholo6BLUVAAKKAgACVp29Cj5SbosTxUBnHgQ</t>
+  </si>
+  <si>
+    <t>привет</t>
+  </si>
+  <si>
+    <t>CAACAgIAAxkBAAOFYFse2EbZxvImJ_jaCeqYhMXZzUUAAkMAA4wPBgUBj55LMpPjEB4E</t>
   </si>
 </sst>
 </file>
@@ -381,46 +393,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D2" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D3" s="1" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>emoji</t>
   </si>
@@ -56,13 +56,55 @@
   </si>
   <si>
     <t>CAACAgIAAxkBAAOFYFse2EbZxvImJ_jaCeqYhMXZzUUAAkMAA4wPBgUBj55LMpPjEB4E</t>
+  </si>
+  <si>
+    <t>Я не хочу брать Иерусалим</t>
+  </si>
+  <si>
+    <t>CAACAgIAAxkBAANBYFnKfcWD9t6m_8</t>
+  </si>
+  <si>
+    <t>Смешная шутка</t>
+  </si>
+  <si>
+    <t>Привет</t>
+  </si>
+  <si>
+    <t>Пока</t>
+  </si>
+  <si>
+    <t>Я люблю аниме</t>
+  </si>
+  <si>
+    <t>я люблю аниме</t>
+  </si>
+  <si>
+    <t>CAACAgIAAxkBAAOrYGMFPwhqpYr54oXzp1GzBujaKTYAAlcGAALSWogBjt3QY0E8UxgeBA</t>
+  </si>
+  <si>
+    <t>Я не люблю аниме</t>
+  </si>
+  <si>
+    <t>я не люблю аниме</t>
+  </si>
+  <si>
+    <t>CAACAgIAAxkBAAOuYGMFjQcaiyjvWMC1g0usqFnHMEsAAmcBAAIQGm0igOKx4pV8RP0eBA</t>
+  </si>
+  <si>
+    <t>Я люблю лоли</t>
+  </si>
+  <si>
+    <t>я люблю лоли</t>
+  </si>
+  <si>
+    <t>CAACAgIAAxkBAAOxYGMF_3KpoGhM_oZyUc8wTbyxl3kAAnwBAAIQGm0iWCyFQx6K9ZYeBA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +115,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3A6D99"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
@@ -98,9 +147,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -116,6 +174,179 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="AutoShape 1" descr="blob:https://web.telegram.org/2d92bd88-1e61-4d99-b3a3-d08b3b858537"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="2905125"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="AutoShape 2" descr="blob:https://web.telegram.org/2d92bd88-1e61-4d99-b3a3-d08b3b858537"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="3714750"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1027" name="AutoShape 3" descr="blob:https://web.telegram.org/2d92bd88-1e61-4d99-b3a3-d08b3b858537"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="3286125"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="AutoShape 4" descr="blob:https://web.telegram.org/2d92bd88-1e61-4d99-b3a3-d08b3b858537"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="4095750"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -393,10 +624,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,8 +683,92 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>